--- a/PLANTILLAS APLICATIVO/INDICADORES SALUD.xlsx
+++ b/PLANTILLAS APLICATIVO/INDICADORES SALUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEIDY\Documents\C-STAR\2022\Pati_Septiembre\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C94A14-5126-473A-A30B-F1A88BF1A6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BD9896-3FD7-42FF-8ACC-81957C72FA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{692FF39B-6647-44C8-9F26-BD0BF72EAC9C}"/>
+    <workbookView xWindow="2250" yWindow="2355" windowWidth="15375" windowHeight="7785" xr2:uid="{692FF39B-6647-44C8-9F26-BD0BF72EAC9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="31">
   <si>
     <t>INDICADOR</t>
   </si>
@@ -67,16 +67,79 @@
   </si>
   <si>
     <t>VALOR</t>
+  </si>
+  <si>
+    <t>EFECTIVIDAD</t>
+  </si>
+  <si>
+    <t>TASA DE MORTALIDAD PERINATAL</t>
+  </si>
+  <si>
+    <t>BOYACÁ</t>
+  </si>
+  <si>
+    <t>SOMONDOCO</t>
+  </si>
+  <si>
+    <t>POR 1000 NACIMIENTOS</t>
+  </si>
+  <si>
+    <t>CHIVOR</t>
+  </si>
+  <si>
+    <t>MACANAL</t>
+  </si>
+  <si>
+    <t>EMPRESA SOCIAL DEL ESTADO CENTRO DE SALUD SAN SEBASTIAN DE SOMONDOCO</t>
+  </si>
+  <si>
+    <t>EMPRESA SOCIAL DEL ESTADO CENTRO DE SALUD MACANAL</t>
+  </si>
+  <si>
+    <t>EMPRESA SOCIAL DEL ESTADO HOSPITAL SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>CENTRO DE SALUD DE CHIVOR</t>
+  </si>
+  <si>
+    <t>SAN LUIS DE GACENO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
+    <t>PROPORCION DE GESTANTES CON VALORACIÓN POR ODONTOLOGÍA</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>CENTRO DE SALUD DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,10 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,20 +508,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19B0FC2-899F-41D4-8266-7049DBF638BD}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,16 +557,1920 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>8</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="2">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2</v>
+      </c>
+      <c r="M35" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="2">
+        <v>3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>6</v>
+      </c>
+      <c r="M36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>9</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2020</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>8</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>11</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>12</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>8</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>6</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>7</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>8</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>4</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="2">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2">
+        <v>6</v>
+      </c>
+      <c r="M50" s="2">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="2">
+        <v>6</v>
+      </c>
+      <c r="L51" s="2">
+        <v>12</v>
+      </c>
+      <c r="M51" s="2">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>